--- a/data/trans_orig/P05A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CBEE14-586B-44AD-9081-1B021BF89E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D069A69-6224-4853-955F-659A034924C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6C229E69-2840-40E7-888A-E5BD336B611D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8184304-9E2E-4F72-A4B9-FDFAE5E34314}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="639">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,1861 +77,1876 @@
     <t>51,63%</t>
   </si>
   <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
   </si>
   <si>
     <t>49,74%</t>
   </si>
   <si>
-    <t>42,82%</t>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>55,97%</t>
   </si>
   <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2015 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>6,12%</t>
   </si>
   <si>
     <t>5,04%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
   </si>
   <si>
     <t>5,55%</t>
@@ -2352,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4F879D-C640-43FC-9F19-2FE4156E6330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF705EF-61D5-479E-AEFE-CB1A6C9B9C8E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2700,10 +2715,10 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>563</v>
@@ -2712,13 +2727,13 @@
         <v>571743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2748,13 @@
         <v>232403</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>245</v>
@@ -2748,13 +2763,13 @@
         <v>246575</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>478</v>
@@ -2763,13 +2778,13 @@
         <v>478978</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2799,13 @@
         <v>44218</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -2799,13 +2814,13 @@
         <v>59311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -2814,13 +2829,13 @@
         <v>103529</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,7 +2891,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2888,13 +2903,13 @@
         <v>523530</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>473</v>
@@ -2903,13 +2918,13 @@
         <v>505810</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>951</v>
@@ -2918,13 +2933,13 @@
         <v>1029340</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2954,13 @@
         <v>350742</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>316</v>
@@ -2954,13 +2969,13 @@
         <v>337509</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>652</v>
@@ -2969,10 +2984,10 @@
         <v>688251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>86</v>
@@ -3372,7 +3387,7 @@
         <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>713</v>
@@ -3381,13 +3396,13 @@
         <v>705307</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3417,13 @@
         <v>108656</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -3480,7 +3495,7 @@
         <v>1989</v>
       </c>
       <c r="N23" s="7">
-        <v>1979002</v>
+        <v>1979001</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3536,13 +3551,13 @@
         <v>3428975</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3572,13 @@
         <v>1216475</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>1196</v>
@@ -3572,13 +3587,13 @@
         <v>1221767</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>2407</v>
@@ -3587,13 +3602,13 @@
         <v>2438242</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3623,13 @@
         <v>327061</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>446</v>
@@ -3623,13 +3638,13 @@
         <v>455922</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>761</v>
@@ -3638,13 +3653,13 @@
         <v>782983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,7 +3715,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07E2C79-EA39-46F0-91D3-96EF78BA633A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E87779B-4719-4AA4-A4BA-7C1C10DD0248}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,7 +3753,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3845,13 +3860,13 @@
         <v>97876</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>85</v>
@@ -3860,13 +3875,13 @@
         <v>95724</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -3875,13 +3890,13 @@
         <v>193600</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3911,13 @@
         <v>13377</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3911,13 +3926,13 @@
         <v>13951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3926,13 +3941,13 @@
         <v>27327</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3962,13 @@
         <v>2243</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3962,13 +3977,13 @@
         <v>2230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3977,13 +3992,13 @@
         <v>4473</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4066,13 @@
         <v>445634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>422</v>
@@ -4066,13 +4081,13 @@
         <v>444313</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>839</v>
@@ -4081,13 +4096,13 @@
         <v>889947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4117,13 @@
         <v>126412</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -4117,13 +4132,13 @@
         <v>118639</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M9" s="7">
         <v>229</v>
@@ -4132,13 +4147,13 @@
         <v>245051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4168,13 @@
         <v>15657</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4168,13 +4183,13 @@
         <v>20474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4183,13 +4198,13 @@
         <v>36131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,7 +4260,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4257,13 +4272,13 @@
         <v>742187</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="H12" s="7">
         <v>676</v>
@@ -4272,13 +4287,13 @@
         <v>742502</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M12" s="7">
         <v>1359</v>
@@ -4287,13 +4302,13 @@
         <v>1484689</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4323,13 @@
         <v>232196</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>218</v>
@@ -4323,13 +4338,13 @@
         <v>237602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -4338,13 +4353,13 @@
         <v>469798</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4374,13 @@
         <v>40420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -4374,13 +4389,13 @@
         <v>49964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -4389,13 +4404,13 @@
         <v>90384</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4478,13 @@
         <v>511701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>482</v>
@@ -4478,13 +4493,13 @@
         <v>536859</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>945</v>
@@ -4493,13 +4508,13 @@
         <v>1048560</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4529,13 @@
         <v>190877</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -4529,13 +4544,13 @@
         <v>178472</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -4544,13 +4559,13 @@
         <v>369349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4580,13 @@
         <v>54151</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -4580,13 +4595,13 @@
         <v>60782</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>103</v>
@@ -4595,13 +4610,13 @@
         <v>114933</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4684,13 @@
         <v>542413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>648</v>
@@ -4684,13 +4699,13 @@
         <v>677307</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>1170</v>
@@ -4699,13 +4714,13 @@
         <v>1219721</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4735,13 @@
         <v>301163</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>83</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H21" s="7">
         <v>257</v>
@@ -4735,13 +4750,13 @@
         <v>271244</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M21" s="7">
         <v>546</v>
@@ -4750,13 +4765,13 @@
         <v>572407</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4786,13 @@
         <v>104163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -4786,13 +4801,13 @@
         <v>102394</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4801,13 +4816,13 @@
         <v>206557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4890,13 @@
         <v>2339811</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
         <v>2313</v>
@@ -4890,13 +4905,13 @@
         <v>2496706</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>4500</v>
@@ -4905,13 +4920,13 @@
         <v>4836518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4941,13 @@
         <v>864025</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>762</v>
@@ -4941,13 +4956,13 @@
         <v>819907</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>1577</v>
@@ -4956,13 +4971,13 @@
         <v>1683933</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4992,13 @@
         <v>216633</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H26" s="7">
         <v>218</v>
@@ -4992,13 +5007,13 @@
         <v>235845</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>419</v>
@@ -5007,13 +5022,13 @@
         <v>452478</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,7 +5084,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5090,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3B00E6-6534-4520-9A56-A15295C2CC23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277ACE76-BE85-48C2-9C84-BAE8C9A3D828}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5107,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5214,13 +5229,13 @@
         <v>107503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5229,13 +5244,13 @@
         <v>103176</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>208</v>
@@ -5244,13 +5259,13 @@
         <v>210678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5280,13 @@
         <v>7056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5280,13 +5295,13 @@
         <v>6609</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5295,13 +5310,13 @@
         <v>13664</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5331,13 @@
         <v>1988</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -5331,13 +5346,13 @@
         <v>3576</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5346,13 +5361,13 @@
         <v>5563</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5435,13 @@
         <v>456566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5435,13 +5450,13 @@
         <v>457976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -5450,13 +5465,13 @@
         <v>914542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5486,13 @@
         <v>83666</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -5486,13 +5501,13 @@
         <v>77400</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -5501,13 +5516,13 @@
         <v>161065</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5537,13 @@
         <v>18023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -5537,13 +5552,13 @@
         <v>23027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5552,13 +5567,13 @@
         <v>41050</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,7 +5629,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5626,13 +5641,13 @@
         <v>764591</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>182</v>
+        <v>392</v>
       </c>
       <c r="H12" s="7">
         <v>752</v>
@@ -5641,13 +5656,13 @@
         <v>800752</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M12" s="7">
         <v>1464</v>
@@ -5656,13 +5671,13 @@
         <v>1565343</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5692,13 @@
         <v>213138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>399</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -5692,13 +5707,13 @@
         <v>179700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -5707,13 +5722,13 @@
         <v>392838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5743,13 @@
         <v>44702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -5743,13 +5758,13 @@
         <v>59685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5758,13 +5773,13 @@
         <v>104387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5847,13 @@
         <v>483450</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>443</v>
@@ -5847,13 +5862,13 @@
         <v>471881</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>886</v>
@@ -5862,13 +5877,13 @@
         <v>955330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5898,13 @@
         <v>230674</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>240</v>
@@ -5898,13 +5913,13 @@
         <v>254991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M17" s="7">
         <v>451</v>
@@ -5913,13 +5928,13 @@
         <v>485665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5949,13 @@
         <v>44339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>433</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>429</v>
+        <v>64</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -5949,13 +5964,13 @@
         <v>56869</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -5964,13 +5979,13 @@
         <v>101208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6053,13 @@
         <v>597056</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>638</v>
@@ -6053,13 +6068,13 @@
         <v>692203</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>1234</v>
@@ -6068,13 +6083,13 @@
         <v>1289258</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6104,13 @@
         <v>275304</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="H21" s="7">
         <v>241</v>
@@ -6104,13 +6119,13 @@
         <v>262376</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M21" s="7">
         <v>514</v>
@@ -6119,13 +6134,13 @@
         <v>537681</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6155,13 @@
         <v>63940</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
@@ -6155,13 +6170,13 @@
         <v>88165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M22" s="7">
         <v>141</v>
@@ -6170,13 +6185,13 @@
         <v>152105</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6259,13 @@
         <v>2409164</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H24" s="7">
         <v>2388</v>
@@ -6259,13 +6274,13 @@
         <v>2525987</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M24" s="7">
         <v>4685</v>
@@ -6274,13 +6289,13 @@
         <v>4935152</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6310,13 @@
         <v>809838</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H25" s="7">
         <v>732</v>
@@ -6310,13 +6325,13 @@
         <v>781075</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M25" s="7">
         <v>1503</v>
@@ -6325,13 +6340,13 @@
         <v>1590913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6361,13 @@
         <v>172992</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H26" s="7">
         <v>213</v>
@@ -6361,13 +6376,13 @@
         <v>231322</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M26" s="7">
         <v>374</v>
@@ -6376,13 +6391,13 @@
         <v>404314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>276</v>
+        <v>489</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,7 +6453,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6459,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EAC91E-0CC4-4CFD-A841-4E2D229C71DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8509642-0B6F-4F23-AB78-1349E231AC96}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6476,7 +6491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6583,13 +6598,13 @@
         <v>98722</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>239</v>
@@ -6598,13 +6613,13 @@
         <v>126361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>353</v>
@@ -6613,13 +6628,13 @@
         <v>225083</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6649,13 @@
         <v>2352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6649,13 +6664,13 @@
         <v>1474</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6664,13 +6679,13 @@
         <v>3826</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6700,13 @@
         <v>908</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6700,13 +6715,13 @@
         <v>2898</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6715,13 +6730,13 @@
         <v>3806</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>327</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6804,13 @@
         <v>489470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="H8" s="7">
         <v>911</v>
@@ -6804,13 +6819,13 @@
         <v>562331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M8" s="7">
         <v>1460</v>
@@ -6819,13 +6834,13 @@
         <v>1051802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6855,13 @@
         <v>48057</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H9" s="7">
         <v>66</v>
@@ -6855,13 +6870,13 @@
         <v>44272</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="M9" s="7">
         <v>116</v>
@@ -6870,13 +6885,13 @@
         <v>92330</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>526</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6906,13 @@
         <v>11245</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -6906,13 +6921,13 @@
         <v>13364</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -6921,13 +6936,13 @@
         <v>24609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,7 +6998,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6995,13 +7010,13 @@
         <v>885158</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H12" s="7">
         <v>1265</v>
@@ -7010,13 +7025,13 @@
         <v>870712</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M12" s="7">
         <v>2082</v>
@@ -7025,13 +7040,13 @@
         <v>1755870</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +7061,13 @@
         <v>104402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H13" s="7">
         <v>189</v>
@@ -7061,13 +7076,13 @@
         <v>142683</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -7076,13 +7091,13 @@
         <v>247085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>552</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7112,13 @@
         <v>49688</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -7112,13 +7127,13 @@
         <v>44999</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -7127,13 +7142,13 @@
         <v>94687</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>562</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>561</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7216,13 @@
         <v>541303</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>814</v>
@@ -7216,13 +7231,13 @@
         <v>594482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>1305</v>
@@ -7231,13 +7246,13 @@
         <v>1135785</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7267,13 @@
         <v>166004</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -7267,13 +7282,13 @@
         <v>244278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M17" s="7">
         <v>347</v>
@@ -7282,13 +7297,13 @@
         <v>410282</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7318,13 @@
         <v>21305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -7318,13 +7333,13 @@
         <v>35611</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -7333,13 +7348,13 @@
         <v>56915</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7422,13 @@
         <v>597520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H20" s="7">
         <v>980</v>
@@ -7422,13 +7437,13 @@
         <v>706217</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M20" s="7">
         <v>1612</v>
@@ -7437,13 +7452,13 @@
         <v>1303737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7473,13 @@
         <v>273149</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -7473,13 +7488,13 @@
         <v>316257</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M21" s="7">
         <v>688</v>
@@ -7488,13 +7503,13 @@
         <v>589406</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7524,13 @@
         <v>93695</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>609</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -7524,13 +7539,13 @@
         <v>126513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>607</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M22" s="7">
         <v>264</v>
@@ -7539,13 +7554,13 @@
         <v>220208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,13 +7628,13 @@
         <v>2612174</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H24" s="7">
         <v>4209</v>
@@ -7628,13 +7643,13 @@
         <v>2860102</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M24" s="7">
         <v>6812</v>
@@ -7643,13 +7658,13 @@
         <v>5472276</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7679,13 @@
         <v>593964</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H25" s="7">
         <v>856</v>
@@ -7679,13 +7694,13 @@
         <v>748964</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>628</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="M25" s="7">
         <v>1447</v>
@@ -7694,13 +7709,13 @@
         <v>1342929</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7730,13 @@
         <v>176842</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>198</v>
+        <v>633</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H26" s="7">
         <v>298</v>
@@ -7730,13 +7745,13 @@
         <v>223384</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>635</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>476</v>
@@ -7745,13 +7760,13 @@
         <v>400226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,7 +7822,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D069A69-6224-4853-955F-659A034924C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{959C0B31-C56C-4124-A814-3A28728E49F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8184304-9E2E-4F72-A4B9-FDFAE5E34314}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80682397-4CA4-470A-9DAB-FBCAD2E8F11B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="638">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -77,1885 +77,1882 @@
     <t>51,63%</t>
   </si>
   <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>38,84%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
   </si>
   <si>
     <t>34,58%</t>
   </si>
   <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>20,65%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF705EF-61D5-479E-AEFE-CB1A6C9B9C8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8AE8C0-CD1A-4CDE-9300-DE1F332614C6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2987,10 +2984,10 @@
         <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3002,13 @@
         <v>86660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -3020,13 +3017,13 @@
         <v>125073</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>200</v>
@@ -3035,13 +3032,13 @@
         <v>211733</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3094,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3109,13 +3106,13 @@
         <v>353040</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>393</v>
@@ -3124,13 +3121,13 @@
         <v>385012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>728</v>
@@ -3139,13 +3136,13 @@
         <v>738052</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3157,13 @@
         <v>243330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -3175,13 +3172,13 @@
         <v>220064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>458</v>
@@ -3190,13 +3187,13 @@
         <v>463394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3208,13 @@
         <v>82140</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>77</v>
@@ -3226,7 +3223,7 @@
         <v>75924</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>119</v>
@@ -3244,10 +3241,10 @@
         <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3300,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3315,13 +3312,13 @@
         <v>493131</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>462</v>
@@ -3330,13 +3327,13 @@
         <v>483247</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>981</v>
@@ -3345,13 +3342,13 @@
         <v>976378</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3363,13 @@
         <v>339591</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>352</v>
@@ -3381,13 +3378,13 @@
         <v>365716</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>713</v>
@@ -3396,13 +3393,13 @@
         <v>705307</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3414,13 @@
         <v>108656</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -3432,13 +3429,13 @@
         <v>188660</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>295</v>
@@ -3447,13 +3444,13 @@
         <v>297316</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,7 +3492,7 @@
         <v>1989</v>
       </c>
       <c r="N23" s="7">
-        <v>1979001</v>
+        <v>1979002</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3521,13 +3518,13 @@
         <v>1731295</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>1651</v>
@@ -3536,13 +3533,13 @@
         <v>1697680</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>3337</v>
@@ -3551,13 +3548,13 @@
         <v>3428975</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3569,13 @@
         <v>1216475</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>1196</v>
@@ -3587,13 +3584,13 @@
         <v>1221767</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>2407</v>
@@ -3602,13 +3599,13 @@
         <v>2438242</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3620,13 @@
         <v>327061</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>446</v>
@@ -3638,13 +3635,13 @@
         <v>455922</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>761</v>
@@ -3653,13 +3650,13 @@
         <v>782983</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,7 +3712,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3736,7 +3733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E87779B-4719-4AA4-A4BA-7C1C10DD0248}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01E6241-0388-4E21-96A1-46EDD6245DE4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3753,7 +3750,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3860,13 +3857,13 @@
         <v>97876</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>85</v>
@@ -3875,13 +3872,13 @@
         <v>95724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -3890,13 +3887,13 @@
         <v>193600</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3908,13 @@
         <v>13377</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3926,13 +3923,13 @@
         <v>13951</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3941,13 +3938,13 @@
         <v>27327</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3959,13 @@
         <v>2243</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3977,13 +3974,13 @@
         <v>2230</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3992,13 +3989,13 @@
         <v>4473</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4063,13 @@
         <v>445634</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>422</v>
@@ -4081,13 +4078,13 @@
         <v>444313</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>839</v>
@@ -4096,13 +4093,13 @@
         <v>889947</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4114,13 @@
         <v>126412</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>109</v>
@@ -4132,13 +4129,13 @@
         <v>118639</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M9" s="7">
         <v>229</v>
@@ -4147,13 +4144,13 @@
         <v>245051</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4165,13 @@
         <v>15657</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4183,13 +4180,13 @@
         <v>20474</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4198,13 +4195,13 @@
         <v>36131</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4269,13 @@
         <v>742187</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H12" s="7">
         <v>676</v>
@@ -4287,13 +4284,13 @@
         <v>742502</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M12" s="7">
         <v>1359</v>
@@ -4302,13 +4299,13 @@
         <v>1484689</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4320,13 @@
         <v>232196</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>218</v>
@@ -4338,13 +4335,13 @@
         <v>237602</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -4353,13 +4350,13 @@
         <v>469798</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4371,13 @@
         <v>40420</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -4389,13 +4386,13 @@
         <v>49964</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -4404,13 +4401,13 @@
         <v>90384</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,7 +4463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4478,13 +4475,13 @@
         <v>511701</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>482</v>
@@ -4493,13 +4490,13 @@
         <v>536859</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>945</v>
@@ -4508,13 +4505,13 @@
         <v>1048560</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4526,13 @@
         <v>190877</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -4544,13 +4541,13 @@
         <v>178472</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>344</v>
@@ -4559,13 +4556,13 @@
         <v>369349</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4577,13 @@
         <v>54151</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -4595,13 +4592,13 @@
         <v>60782</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>103</v>
@@ -4610,13 +4607,13 @@
         <v>114933</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,7 +4669,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4684,13 +4681,13 @@
         <v>542413</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>648</v>
@@ -4699,13 +4696,13 @@
         <v>677307</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>1170</v>
@@ -4714,13 +4711,13 @@
         <v>1219721</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4732,13 @@
         <v>301163</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H21" s="7">
         <v>257</v>
@@ -4750,13 +4747,13 @@
         <v>271244</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>300</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>546</v>
@@ -4765,13 +4762,13 @@
         <v>572407</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4783,13 @@
         <v>104163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -4801,13 +4798,13 @@
         <v>102394</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4816,13 +4813,13 @@
         <v>206557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>175</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4887,13 @@
         <v>2339811</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H24" s="7">
         <v>2313</v>
@@ -4905,28 +4902,28 @@
         <v>2496706</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M24" s="7">
         <v>4500</v>
       </c>
       <c r="N24" s="7">
-        <v>4836518</v>
+        <v>4836517</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4938,13 @@
         <v>864025</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>762</v>
@@ -4956,13 +4953,13 @@
         <v>819907</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>1577</v>
@@ -4971,13 +4968,13 @@
         <v>1683933</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4989,13 @@
         <v>216633</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H26" s="7">
         <v>218</v>
@@ -5007,13 +5004,13 @@
         <v>235845</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>419</v>
@@ -5022,13 +5019,13 @@
         <v>452478</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,7 +5067,7 @@
         <v>6496</v>
       </c>
       <c r="N27" s="7">
-        <v>6972929</v>
+        <v>6972928</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5084,7 +5081,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5105,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277ACE76-BE85-48C2-9C84-BAE8C9A3D828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AA58E4-C02A-4A17-9F8D-B0D1E858B2AB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5122,7 +5119,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5229,13 +5226,13 @@
         <v>107503</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H4" s="7">
         <v>104</v>
@@ -5244,13 +5241,13 @@
         <v>103176</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>208</v>
@@ -5259,13 +5256,13 @@
         <v>210678</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5277,13 @@
         <v>7056</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5295,13 +5292,13 @@
         <v>6609</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5310,13 +5307,13 @@
         <v>13664</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5328,13 @@
         <v>1988</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -5346,13 +5343,13 @@
         <v>3576</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5361,13 +5358,13 @@
         <v>5563</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5432,13 @@
         <v>456566</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>451</v>
@@ -5450,13 +5447,13 @@
         <v>457976</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -5465,13 +5462,13 @@
         <v>914542</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5483,13 @@
         <v>83666</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>373</v>
+        <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -5501,13 +5498,13 @@
         <v>77400</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M9" s="7">
         <v>158</v>
@@ -5516,13 +5513,13 @@
         <v>161065</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5534,13 @@
         <v>18023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -5552,13 +5549,13 @@
         <v>23027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5567,13 +5564,13 @@
         <v>41050</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5638,13 @@
         <v>764591</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H12" s="7">
         <v>752</v>
@@ -5656,13 +5653,13 @@
         <v>800752</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M12" s="7">
         <v>1464</v>
@@ -5671,13 +5668,13 @@
         <v>1565343</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5689,13 @@
         <v>213138</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H13" s="7">
         <v>168</v>
@@ -5707,13 +5704,13 @@
         <v>179700</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M13" s="7">
         <v>366</v>
@@ -5722,13 +5719,13 @@
         <v>392838</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5740,13 @@
         <v>44702</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -5758,13 +5755,13 @@
         <v>59685</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5773,13 +5770,13 @@
         <v>104387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,7 +5832,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5847,13 +5844,13 @@
         <v>483450</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>443</v>
@@ -5862,13 +5859,13 @@
         <v>471881</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>886</v>
@@ -5877,13 +5874,13 @@
         <v>955330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>423</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5895,13 @@
         <v>230674</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>240</v>
@@ -5913,13 +5910,13 @@
         <v>254991</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>451</v>
@@ -5928,13 +5925,13 @@
         <v>485665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5946,13 @@
         <v>44339</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -5964,13 +5961,13 @@
         <v>56869</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>435</v>
+        <v>328</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -5979,13 +5976,13 @@
         <v>101208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,7 +6038,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6053,13 +6050,13 @@
         <v>597056</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>638</v>
@@ -6068,13 +6065,13 @@
         <v>692203</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>1234</v>
@@ -6083,13 +6080,13 @@
         <v>1289258</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6101,13 @@
         <v>275304</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H21" s="7">
         <v>241</v>
@@ -6119,13 +6116,13 @@
         <v>262376</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M21" s="7">
         <v>514</v>
@@ -6134,13 +6131,13 @@
         <v>537681</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,10 +6152,10 @@
         <v>63940</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>458</v>
@@ -6188,10 +6185,10 @@
         <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6256,13 @@
         <v>2409164</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>465</v>
+        <v>266</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>467</v>
+        <v>263</v>
       </c>
       <c r="H24" s="7">
         <v>2388</v>
@@ -6274,13 +6271,13 @@
         <v>2525987</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M24" s="7">
         <v>4685</v>
@@ -6289,13 +6286,13 @@
         <v>4935152</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6307,13 @@
         <v>809838</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7">
         <v>732</v>
@@ -6325,13 +6322,13 @@
         <v>781075</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>1503</v>
@@ -6340,13 +6337,13 @@
         <v>1590913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6358,13 @@
         <v>172992</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H26" s="7">
         <v>213</v>
@@ -6376,13 +6373,13 @@
         <v>231322</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M26" s="7">
         <v>374</v>
@@ -6391,13 +6388,13 @@
         <v>404314</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6450,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6474,7 +6471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8509642-0B6F-4F23-AB78-1349E231AC96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B30E99B-DBDC-4F91-ADCF-8EA5EAB75A52}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6491,7 +6488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6598,13 +6595,13 @@
         <v>98722</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H4" s="7">
         <v>239</v>
@@ -6613,13 +6610,13 @@
         <v>126361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M4" s="7">
         <v>353</v>
@@ -6628,13 +6625,13 @@
         <v>225083</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6646,13 @@
         <v>2352</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6664,13 +6661,13 @@
         <v>1474</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -6679,13 +6676,13 @@
         <v>3826</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6697,13 @@
         <v>908</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6715,13 +6712,13 @@
         <v>2898</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6730,13 +6727,13 @@
         <v>3806</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6801,13 @@
         <v>489470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H8" s="7">
         <v>911</v>
@@ -6819,13 +6816,13 @@
         <v>562331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M8" s="7">
         <v>1460</v>
@@ -6834,13 +6831,13 @@
         <v>1051802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6852,13 @@
         <v>48057</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H9" s="7">
         <v>66</v>
@@ -6870,13 +6867,13 @@
         <v>44272</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M9" s="7">
         <v>116</v>
@@ -6885,13 +6882,13 @@
         <v>92330</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,7 +6939,7 @@
         <v>537</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>538</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,13 +7007,13 @@
         <v>885158</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H12" s="7">
         <v>1265</v>
@@ -7025,13 +7022,13 @@
         <v>870712</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M12" s="7">
         <v>2082</v>
@@ -7040,13 +7037,13 @@
         <v>1755870</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7058,13 @@
         <v>104402</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="H13" s="7">
         <v>189</v>
@@ -7076,13 +7073,13 @@
         <v>142683</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -7091,13 +7088,13 @@
         <v>247085</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7109,13 @@
         <v>49688</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>557</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -7127,13 +7124,13 @@
         <v>44999</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -7142,13 +7139,13 @@
         <v>94687</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,7 +7201,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7216,13 +7213,13 @@
         <v>541303</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>814</v>
@@ -7231,13 +7228,13 @@
         <v>594482</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="M16" s="7">
         <v>1305</v>
@@ -7246,13 +7243,13 @@
         <v>1135785</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7264,13 @@
         <v>166004</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -7282,13 +7279,13 @@
         <v>244278</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>578</v>
       </c>
       <c r="M17" s="7">
         <v>347</v>
@@ -7297,10 +7294,10 @@
         <v>410282</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>580</v>
@@ -7318,13 +7315,13 @@
         <v>21305</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="H18" s="7">
         <v>46</v>
@@ -7333,13 +7330,13 @@
         <v>35611</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -7348,13 +7345,13 @@
         <v>56915</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7410,7 +7407,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7530,7 +7527,7 @@
         <v>608</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>609</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>169</v>
@@ -7539,13 +7536,13 @@
         <v>126513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>171</v>
+        <v>609</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="M22" s="7">
         <v>264</v>
@@ -7554,13 +7551,13 @@
         <v>220208</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7625,13 @@
         <v>2612174</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="H24" s="7">
         <v>4209</v>
@@ -7643,13 +7640,13 @@
         <v>2860102</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="M24" s="7">
         <v>6812</v>
@@ -7658,13 +7655,13 @@
         <v>5472276</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7676,13 @@
         <v>593964</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>626</v>
       </c>
       <c r="H25" s="7">
         <v>856</v>
@@ -7694,13 +7691,13 @@
         <v>748964</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="M25" s="7">
         <v>1447</v>
@@ -7709,13 +7706,13 @@
         <v>1342929</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7727,13 @@
         <v>176842</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>634</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>298</v>
@@ -7745,13 +7742,13 @@
         <v>223384</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>476</v>
@@ -7760,13 +7757,13 @@
         <v>400226</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,7 +7819,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{959C0B31-C56C-4124-A814-3A28728E49F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA219AB-6F13-4E18-9050-F2F7532658F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{80682397-4CA4-470A-9DAB-FBCAD2E8F11B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{585249FE-CFDF-408C-A9CD-6DA5FDD20C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="541">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -68,1891 +68,1600 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
-    <t>4,67%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>23,51%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
 </sst>
 </file>
@@ -2364,8 +2073,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8AE8C0-CD1A-4CDE-9300-DE1F332614C6}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B012D9C1-91F6-44E6-AA1A-D51233EA1DEC}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2482,10 +2191,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="D4" s="7">
-        <v>59562</v>
+        <v>361594</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2497,10 +2206,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>323</v>
       </c>
       <c r="I4" s="7">
-        <v>53899</v>
+        <v>323610</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2512,10 +2221,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>114</v>
+        <v>677</v>
       </c>
       <c r="N4" s="7">
-        <v>113461</v>
+        <v>685204</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2533,10 +2242,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="D5" s="7">
-        <v>50409</v>
+        <v>282812</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2548,10 +2257,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>60</v>
+        <v>305</v>
       </c>
       <c r="I5" s="7">
-        <v>51903</v>
+        <v>298477</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2563,10 +2272,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>584</v>
       </c>
       <c r="N5" s="7">
-        <v>102311</v>
+        <v>581289</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2584,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>5387</v>
+        <v>49606</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2599,10 +2308,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="I6" s="7">
-        <v>6953</v>
+        <v>66264</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2614,10 +2323,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="N6" s="7">
-        <v>12341</v>
+        <v>115870</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2635,10 +2344,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D7" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2650,10 +2359,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I7" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2665,10 +2374,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N7" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2688,10 +2397,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>300</v>
+        <v>478</v>
       </c>
       <c r="D8" s="7">
-        <v>302032</v>
+        <v>523530</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2703,10 +2412,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>263</v>
+        <v>473</v>
       </c>
       <c r="I8" s="7">
-        <v>269711</v>
+        <v>505810</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2718,10 +2427,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>563</v>
+        <v>951</v>
       </c>
       <c r="N8" s="7">
-        <v>571743</v>
+        <v>1029340</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2739,10 +2448,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="D9" s="7">
-        <v>232403</v>
+        <v>350742</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2754,10 +2463,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>245</v>
+        <v>316</v>
       </c>
       <c r="I9" s="7">
-        <v>246575</v>
+        <v>337509</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2769,10 +2478,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>478</v>
+        <v>652</v>
       </c>
       <c r="N9" s="7">
-        <v>478978</v>
+        <v>688251</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2790,10 +2499,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>44218</v>
+        <v>86660</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2805,10 +2514,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="I10" s="7">
-        <v>59311</v>
+        <v>125073</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2820,10 +2529,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="N10" s="7">
-        <v>103529</v>
+        <v>211733</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2841,10 +2550,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>578</v>
+        <v>895</v>
       </c>
       <c r="D11" s="7">
-        <v>578654</v>
+        <v>960932</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2856,10 +2565,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I11" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2871,10 +2580,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1146</v>
+        <v>1803</v>
       </c>
       <c r="N11" s="7">
-        <v>1154250</v>
+        <v>1929325</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2894,10 +2603,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>335</v>
       </c>
       <c r="D12" s="7">
-        <v>523530</v>
+        <v>353040</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2909,10 +2618,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="I12" s="7">
-        <v>505810</v>
+        <v>385012</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2924,10 +2633,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>951</v>
+        <v>728</v>
       </c>
       <c r="N12" s="7">
-        <v>1029340</v>
+        <v>738052</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2945,10 +2654,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>336</v>
+        <v>235</v>
       </c>
       <c r="D13" s="7">
-        <v>350742</v>
+        <v>243330</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2960,10 +2669,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="I13" s="7">
-        <v>337509</v>
+        <v>220064</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2975,10 +2684,10 @@
         <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>652</v>
+        <v>458</v>
       </c>
       <c r="N13" s="7">
-        <v>688251</v>
+        <v>463394</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2996,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
-        <v>86660</v>
+        <v>82140</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -3011,34 +2720,34 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="I14" s="7">
-        <v>125073</v>
+        <v>75924</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>148</v>
+      </c>
+      <c r="N14" s="7">
+        <v>158064</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>200</v>
-      </c>
-      <c r="N14" s="7">
-        <v>211733</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>895</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>960932</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3062,10 +2771,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>908</v>
+        <v>693</v>
       </c>
       <c r="I15" s="7">
-        <v>968393</v>
+        <v>681001</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3077,10 +2786,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1803</v>
+        <v>1334</v>
       </c>
       <c r="N15" s="7">
-        <v>1929325</v>
+        <v>1359510</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3094,55 +2803,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>335</v>
+        <v>519</v>
       </c>
       <c r="D16" s="7">
-        <v>353040</v>
+        <v>493131</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>462</v>
+      </c>
+      <c r="I16" s="7">
+        <v>483247</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="7">
-        <v>393</v>
-      </c>
-      <c r="I16" s="7">
-        <v>385012</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>981</v>
+      </c>
+      <c r="N16" s="7">
+        <v>976378</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="7">
-        <v>728</v>
-      </c>
-      <c r="N16" s="7">
-        <v>738052</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,49 +2860,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="D17" s="7">
-        <v>243330</v>
+        <v>339591</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>352</v>
+      </c>
+      <c r="I17" s="7">
+        <v>365716</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="7">
-        <v>223</v>
-      </c>
-      <c r="I17" s="7">
-        <v>220064</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>713</v>
+      </c>
+      <c r="N17" s="7">
+        <v>705307</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7">
-        <v>458</v>
-      </c>
-      <c r="N17" s="7">
-        <v>463394</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,49 +2911,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="D18" s="7">
-        <v>82140</v>
+        <v>108656</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="7">
+        <v>182</v>
+      </c>
+      <c r="I18" s="7">
+        <v>188660</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="7">
-        <v>77</v>
-      </c>
-      <c r="I18" s="7">
-        <v>75924</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>295</v>
+      </c>
+      <c r="N18" s="7">
+        <v>297316</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="7">
-        <v>148</v>
-      </c>
-      <c r="N18" s="7">
-        <v>158064</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,10 +2962,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D19" s="7">
-        <v>678509</v>
+        <v>941378</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3268,10 +2977,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>693</v>
+        <v>996</v>
       </c>
       <c r="I19" s="7">
-        <v>681001</v>
+        <v>1037624</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3283,10 +2992,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1334</v>
+        <v>1989</v>
       </c>
       <c r="N19" s="7">
-        <v>1359510</v>
+        <v>1979001</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3300,55 +3009,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>519</v>
+        <v>1686</v>
       </c>
       <c r="D20" s="7">
-        <v>493131</v>
+        <v>1731295</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>1651</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1697680</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7">
-        <v>462</v>
-      </c>
-      <c r="I20" s="7">
-        <v>483247</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>3337</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3428975</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="7">
-        <v>981</v>
-      </c>
-      <c r="N20" s="7">
-        <v>976378</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,49 +3066,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>361</v>
+        <v>1211</v>
       </c>
       <c r="D21" s="7">
-        <v>339591</v>
+        <v>1216475</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>1196</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1221767</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="7">
-        <v>352</v>
-      </c>
-      <c r="I21" s="7">
-        <v>365716</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>2407</v>
+      </c>
+      <c r="N21" s="7">
+        <v>2438242</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M21" s="7">
-        <v>713</v>
-      </c>
-      <c r="N21" s="7">
-        <v>705307</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,49 +3117,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="D22" s="7">
-        <v>108656</v>
+        <v>327061</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>446</v>
+      </c>
+      <c r="I22" s="7">
+        <v>455922</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="7">
-        <v>182</v>
-      </c>
-      <c r="I22" s="7">
-        <v>188660</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>761</v>
+      </c>
+      <c r="N22" s="7">
+        <v>782983</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M22" s="7">
-        <v>295</v>
-      </c>
-      <c r="N22" s="7">
-        <v>297316</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,10 +3168,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>993</v>
+        <v>3212</v>
       </c>
       <c r="D23" s="7">
-        <v>941378</v>
+        <v>3274831</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3474,10 +3183,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>996</v>
+        <v>3293</v>
       </c>
       <c r="I23" s="7">
-        <v>1037624</v>
+        <v>3375369</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3489,10 +3198,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1989</v>
+        <v>6505</v>
       </c>
       <c r="N23" s="7">
-        <v>1979002</v>
+        <v>6650200</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3505,222 +3214,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1686</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1731295</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1651</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1697680</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" s="7">
-        <v>3337</v>
-      </c>
-      <c r="N24" s="7">
-        <v>3428975</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1211</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1216475</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1196</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1221767</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="7">
-        <v>2407</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2438242</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>315</v>
-      </c>
-      <c r="D26" s="7">
-        <v>327061</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="7">
-        <v>446</v>
-      </c>
-      <c r="I26" s="7">
-        <v>455922</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="7">
-        <v>761</v>
-      </c>
-      <c r="N26" s="7">
-        <v>782983</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3212</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3274831</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3293</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3375369</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6650200</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3733,8 +3235,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01E6241-0388-4E21-96A1-46EDD6245DE4}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A513648-50D6-4C10-8FE9-C1DE0F8E20D8}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3750,7 +3252,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3851,49 +3353,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>102</v>
+        <v>519</v>
       </c>
       <c r="D4" s="7">
-        <v>97876</v>
+        <v>543510</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
-        <v>85</v>
+        <v>507</v>
       </c>
       <c r="I4" s="7">
-        <v>95724</v>
+        <v>540037</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
-        <v>187</v>
+        <v>1026</v>
       </c>
       <c r="N4" s="7">
-        <v>193600</v>
+        <v>1083547</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,49 +3404,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="D5" s="7">
-        <v>13377</v>
+        <v>139789</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I5" s="7">
-        <v>13951</v>
+        <v>132589</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="N5" s="7">
-        <v>27327</v>
+        <v>272379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,49 +3455,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>2243</v>
+        <v>17900</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>2230</v>
+        <v>22704</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="N6" s="7">
-        <v>4473</v>
+        <v>40604</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,10 +3506,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>120</v>
+        <v>672</v>
       </c>
       <c r="D7" s="7">
-        <v>113495</v>
+        <v>701199</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4019,10 +3521,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="I7" s="7">
-        <v>111905</v>
+        <v>695331</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4034,10 +3536,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>219</v>
+        <v>1321</v>
       </c>
       <c r="N7" s="7">
-        <v>225400</v>
+        <v>1396530</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4057,49 +3559,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>417</v>
+        <v>683</v>
       </c>
       <c r="D8" s="7">
-        <v>445634</v>
+        <v>742187</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>422</v>
+        <v>676</v>
       </c>
       <c r="I8" s="7">
-        <v>444313</v>
+        <v>742502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>839</v>
+        <v>1359</v>
       </c>
       <c r="N8" s="7">
-        <v>889947</v>
+        <v>1484689</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,49 +3610,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="D9" s="7">
-        <v>126412</v>
+        <v>232196</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="I9" s="7">
-        <v>118639</v>
+        <v>237602</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="M9" s="7">
-        <v>229</v>
+        <v>431</v>
       </c>
       <c r="N9" s="7">
-        <v>245051</v>
+        <v>469798</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,49 +3661,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>15657</v>
+        <v>40420</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>20474</v>
+        <v>49964</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>36131</v>
+        <v>90384</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,10 +3712,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>933</v>
       </c>
       <c r="D11" s="7">
-        <v>587704</v>
+        <v>1014803</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4225,10 +3727,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>550</v>
+        <v>938</v>
       </c>
       <c r="I11" s="7">
-        <v>583426</v>
+        <v>1030069</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4240,10 +3742,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1102</v>
+        <v>1871</v>
       </c>
       <c r="N11" s="7">
-        <v>1171130</v>
+        <v>2044872</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4263,49 +3765,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>683</v>
+        <v>463</v>
       </c>
       <c r="D12" s="7">
-        <v>742187</v>
+        <v>511701</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
-        <v>676</v>
+        <v>482</v>
       </c>
       <c r="I12" s="7">
-        <v>742502</v>
+        <v>536859</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
-        <v>1359</v>
+        <v>945</v>
       </c>
       <c r="N12" s="7">
-        <v>1484689</v>
+        <v>1048560</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,49 +3816,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>232196</v>
+        <v>190877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
+        <v>166</v>
+      </c>
+      <c r="I13" s="7">
+        <v>178472</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="7">
-        <v>237602</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
-        <v>431</v>
+        <v>344</v>
       </c>
       <c r="N13" s="7">
-        <v>469798</v>
+        <v>369349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,49 +3867,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>40420</v>
+        <v>54151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I14" s="7">
-        <v>49964</v>
+        <v>60782</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="N14" s="7">
-        <v>90384</v>
+        <v>114933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,10 +3918,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>933</v>
+        <v>688</v>
       </c>
       <c r="D15" s="7">
-        <v>1014803</v>
+        <v>756729</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4431,10 +3933,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="I15" s="7">
-        <v>1030069</v>
+        <v>776113</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4446,10 +3948,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1871</v>
+        <v>1392</v>
       </c>
       <c r="N15" s="7">
-        <v>2044872</v>
+        <v>1532842</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4463,55 +3965,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="D16" s="7">
-        <v>511701</v>
+        <v>542413</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
-        <v>482</v>
+        <v>648</v>
       </c>
       <c r="I16" s="7">
-        <v>536859</v>
+        <v>677307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
-        <v>945</v>
+        <v>1170</v>
       </c>
       <c r="N16" s="7">
-        <v>1048560</v>
+        <v>1219721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,49 +4022,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="D17" s="7">
-        <v>190877</v>
+        <v>301163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="I17" s="7">
-        <v>178472</v>
+        <v>271244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
-        <v>344</v>
+        <v>546</v>
       </c>
       <c r="N17" s="7">
-        <v>369349</v>
+        <v>572407</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,49 +4073,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D18" s="7">
-        <v>54151</v>
+        <v>104163</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="I18" s="7">
-        <v>60782</v>
+        <v>102394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="N18" s="7">
-        <v>114933</v>
+        <v>206557</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,10 +4124,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>688</v>
+        <v>910</v>
       </c>
       <c r="D19" s="7">
-        <v>756729</v>
+        <v>947739</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4637,10 +4139,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>704</v>
+        <v>1002</v>
       </c>
       <c r="I19" s="7">
-        <v>776113</v>
+        <v>1050945</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4652,10 +4154,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1392</v>
+        <v>1912</v>
       </c>
       <c r="N19" s="7">
-        <v>1532842</v>
+        <v>1998684</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4669,55 +4171,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>522</v>
+        <v>2187</v>
       </c>
       <c r="D20" s="7">
-        <v>542413</v>
+        <v>2339811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
-        <v>648</v>
+        <v>2313</v>
       </c>
       <c r="I20" s="7">
-        <v>677307</v>
+        <v>2496706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
-        <v>1170</v>
+        <v>4500</v>
       </c>
       <c r="N20" s="7">
-        <v>1219721</v>
+        <v>4836518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,49 +4228,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>289</v>
+        <v>815</v>
       </c>
       <c r="D21" s="7">
-        <v>301163</v>
+        <v>864025</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="H21" s="7">
-        <v>257</v>
+        <v>762</v>
       </c>
       <c r="I21" s="7">
-        <v>271244</v>
+        <v>819907</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>271</v>
       </c>
       <c r="M21" s="7">
-        <v>546</v>
+        <v>1577</v>
       </c>
       <c r="N21" s="7">
-        <v>572407</v>
+        <v>1683933</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,49 +4279,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D22" s="7">
-        <v>104163</v>
+        <v>216633</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="I22" s="7">
-        <v>102394</v>
+        <v>235845</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
-        <v>196</v>
+        <v>419</v>
       </c>
       <c r="N22" s="7">
-        <v>206557</v>
+        <v>452478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,10 +4330,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>910</v>
+        <v>3203</v>
       </c>
       <c r="D23" s="7">
-        <v>947739</v>
+        <v>3420470</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4843,10 +4345,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1002</v>
+        <v>3293</v>
       </c>
       <c r="I23" s="7">
-        <v>1050945</v>
+        <v>3552458</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4858,10 +4360,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1912</v>
+        <v>6496</v>
       </c>
       <c r="N23" s="7">
-        <v>1998684</v>
+        <v>6972929</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4874,222 +4376,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2187</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2339811</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2313</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2496706</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M24" s="7">
-        <v>4500</v>
-      </c>
-      <c r="N24" s="7">
-        <v>4836517</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>815</v>
-      </c>
-      <c r="D25" s="7">
-        <v>864025</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H25" s="7">
-        <v>762</v>
-      </c>
-      <c r="I25" s="7">
-        <v>819907</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1577</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1683933</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>201</v>
-      </c>
-      <c r="D26" s="7">
-        <v>216633</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H26" s="7">
-        <v>218</v>
-      </c>
-      <c r="I26" s="7">
-        <v>235845</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M26" s="7">
-        <v>419</v>
-      </c>
-      <c r="N26" s="7">
-        <v>452478</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3203</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3420470</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3293</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3552458</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6496</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6972928</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5102,8 +4397,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AA58E4-C02A-4A17-9F8D-B0D1E858B2AB}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACED90F-EF3F-4431-B049-7BF62B07E058}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5119,7 +4414,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5220,49 +4515,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>104</v>
+        <v>546</v>
       </c>
       <c r="D4" s="7">
-        <v>107503</v>
+        <v>564068</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7">
-        <v>104</v>
+        <v>555</v>
       </c>
       <c r="I4" s="7">
-        <v>103176</v>
+        <v>561152</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
-        <v>208</v>
+        <v>1101</v>
       </c>
       <c r="N4" s="7">
-        <v>210678</v>
+        <v>1125220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,49 +4566,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D5" s="7">
-        <v>7056</v>
+        <v>90721</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="I5" s="7">
-        <v>6609</v>
+        <v>84009</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="N5" s="7">
-        <v>13664</v>
+        <v>174730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,49 +4617,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>1988</v>
+        <v>20011</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7">
-        <v>3576</v>
+        <v>26603</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="N6" s="7">
-        <v>5563</v>
+        <v>46613</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,10 +4668,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D7" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5388,10 +4683,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>115</v>
+        <v>665</v>
       </c>
       <c r="I7" s="7">
-        <v>113360</v>
+        <v>671763</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5403,10 +4698,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>228</v>
+        <v>1317</v>
       </c>
       <c r="N7" s="7">
-        <v>229906</v>
+        <v>1346563</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5426,49 +4721,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>442</v>
+        <v>712</v>
       </c>
       <c r="D8" s="7">
-        <v>456566</v>
+        <v>764591</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
-        <v>451</v>
+        <v>752</v>
       </c>
       <c r="I8" s="7">
-        <v>457976</v>
+        <v>800752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
-        <v>893</v>
+        <v>1464</v>
       </c>
       <c r="N8" s="7">
-        <v>914542</v>
+        <v>1565343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,49 +4772,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="D9" s="7">
-        <v>83666</v>
+        <v>213138</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="H9" s="7">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="I9" s="7">
-        <v>77400</v>
+        <v>179700</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
-        <v>158</v>
+        <v>366</v>
       </c>
       <c r="N9" s="7">
-        <v>161065</v>
+        <v>392838</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,49 +4823,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>18023</v>
+        <v>44702</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>23027</v>
+        <v>59685</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>41050</v>
+        <v>104387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,10 +4874,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D11" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5594,10 +4889,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>550</v>
+        <v>975</v>
       </c>
       <c r="I11" s="7">
-        <v>558403</v>
+        <v>1040137</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5609,10 +4904,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1089</v>
+        <v>1926</v>
       </c>
       <c r="N11" s="7">
-        <v>1116657</v>
+        <v>2062568</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5632,49 +4927,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>712</v>
+        <v>443</v>
       </c>
       <c r="D12" s="7">
-        <v>764591</v>
+        <v>483450</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
-        <v>752</v>
+        <v>443</v>
       </c>
       <c r="I12" s="7">
-        <v>800752</v>
+        <v>471881</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="M12" s="7">
-        <v>1464</v>
+        <v>886</v>
       </c>
       <c r="N12" s="7">
-        <v>1565343</v>
+        <v>955330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>396</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,49 +4978,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7">
-        <v>213138</v>
+        <v>230674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="I13" s="7">
-        <v>179700</v>
+        <v>254991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
-        <v>366</v>
+        <v>451</v>
       </c>
       <c r="N13" s="7">
-        <v>392838</v>
+        <v>485665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,46 +5032,46 @@
         <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>44702</v>
+        <v>44339</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>59685</v>
+        <v>56869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N14" s="7">
-        <v>104387</v>
+        <v>101208</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,10 +5080,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>951</v>
+        <v>695</v>
       </c>
       <c r="D15" s="7">
-        <v>1022431</v>
+        <v>758463</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5800,10 +5095,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>975</v>
+        <v>735</v>
       </c>
       <c r="I15" s="7">
-        <v>1040137</v>
+        <v>783740</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5815,10 +5110,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>1926</v>
+        <v>1430</v>
       </c>
       <c r="N15" s="7">
-        <v>2062568</v>
+        <v>1542203</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5832,55 +5127,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>443</v>
+        <v>596</v>
       </c>
       <c r="D16" s="7">
-        <v>483450</v>
+        <v>597056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
-        <v>443</v>
+        <v>638</v>
       </c>
       <c r="I16" s="7">
-        <v>471881</v>
+        <v>692203</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
-        <v>886</v>
+        <v>1234</v>
       </c>
       <c r="N16" s="7">
-        <v>955330</v>
+        <v>1289258</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,49 +5184,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="D17" s="7">
-        <v>230674</v>
+        <v>275304</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I17" s="7">
-        <v>254991</v>
+        <v>262376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="N17" s="7">
-        <v>485665</v>
+        <v>537681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,49 +5235,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7">
-        <v>44339</v>
+        <v>63940</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="H18" s="7">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I18" s="7">
-        <v>56869</v>
+        <v>88165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="N18" s="7">
-        <v>101208</v>
+        <v>152105</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>359</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>695</v>
+        <v>931</v>
       </c>
       <c r="D19" s="7">
-        <v>758463</v>
+        <v>936300</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6006,10 +5301,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>735</v>
+        <v>958</v>
       </c>
       <c r="I19" s="7">
-        <v>783740</v>
+        <v>1042744</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6021,10 +5316,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1430</v>
+        <v>1889</v>
       </c>
       <c r="N19" s="7">
-        <v>1542203</v>
+        <v>1979044</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6038,55 +5333,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>596</v>
+        <v>2297</v>
       </c>
       <c r="D20" s="7">
-        <v>597056</v>
+        <v>2409164</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
-        <v>638</v>
+        <v>2388</v>
       </c>
       <c r="I20" s="7">
-        <v>692203</v>
+        <v>2525987</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
-        <v>1234</v>
+        <v>4685</v>
       </c>
       <c r="N20" s="7">
-        <v>1289258</v>
+        <v>4935152</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,49 +5390,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>273</v>
+        <v>771</v>
       </c>
       <c r="D21" s="7">
-        <v>275304</v>
+        <v>809838</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="H21" s="7">
-        <v>241</v>
+        <v>732</v>
       </c>
       <c r="I21" s="7">
-        <v>262376</v>
+        <v>781075</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="M21" s="7">
-        <v>514</v>
+        <v>1503</v>
       </c>
       <c r="N21" s="7">
-        <v>537681</v>
+        <v>1590913</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,49 +5441,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="D22" s="7">
-        <v>63940</v>
+        <v>172992</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="I22" s="7">
-        <v>88165</v>
+        <v>231322</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
-        <v>141</v>
+        <v>374</v>
       </c>
       <c r="N22" s="7">
-        <v>152105</v>
+        <v>404314</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,10 +5492,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>931</v>
+        <v>3229</v>
       </c>
       <c r="D23" s="7">
-        <v>936300</v>
+        <v>3391994</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6212,10 +5507,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>958</v>
+        <v>3333</v>
       </c>
       <c r="I23" s="7">
-        <v>1042744</v>
+        <v>3538384</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6227,10 +5522,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>1889</v>
+        <v>6562</v>
       </c>
       <c r="N23" s="7">
-        <v>1979044</v>
+        <v>6930378</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6243,222 +5538,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2297</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2409164</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2388</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2525987</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="M24" s="7">
-        <v>4685</v>
-      </c>
-      <c r="N24" s="7">
-        <v>4935152</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>771</v>
-      </c>
-      <c r="D25" s="7">
-        <v>809838</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H25" s="7">
-        <v>732</v>
-      </c>
-      <c r="I25" s="7">
-        <v>781075</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1503</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1590913</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>161</v>
-      </c>
-      <c r="D26" s="7">
-        <v>172992</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H26" s="7">
-        <v>213</v>
-      </c>
-      <c r="I26" s="7">
-        <v>231322</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="M26" s="7">
-        <v>374</v>
-      </c>
-      <c r="N26" s="7">
-        <v>404314</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3229</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3391994</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3333</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3538384</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>6562</v>
-      </c>
-      <c r="N27" s="7">
-        <v>6930378</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6471,8 +5559,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B30E99B-DBDC-4F91-ADCF-8EA5EAB75A52}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C98C21-729F-4531-8399-364FDFEE08BE}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6488,7 +5576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6589,49 +5677,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>114</v>
+        <v>663</v>
       </c>
       <c r="D4" s="7">
-        <v>98722</v>
+        <v>573773</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>489</v>
+        <v>414</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>490</v>
+        <v>415</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>491</v>
+        <v>416</v>
       </c>
       <c r="H4" s="7">
-        <v>239</v>
+        <v>1150</v>
       </c>
       <c r="I4" s="7">
-        <v>126361</v>
+        <v>668390</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>494</v>
+        <v>419</v>
       </c>
       <c r="M4" s="7">
-        <v>353</v>
+        <v>1813</v>
       </c>
       <c r="N4" s="7">
-        <v>225083</v>
+        <v>1242163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>495</v>
+        <v>420</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>496</v>
+        <v>421</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>497</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,49 +5728,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>2352</v>
+        <v>48932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>498</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>499</v>
+        <v>424</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="I5" s="7">
-        <v>1474</v>
+        <v>41752</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>501</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>502</v>
+        <v>427</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>503</v>
+        <v>428</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="N5" s="7">
-        <v>3826</v>
+        <v>90683</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>504</v>
+        <v>429</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>505</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>506</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,49 +5779,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>908</v>
+        <v>11717</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>507</v>
+        <v>432</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>200</v>
+        <v>433</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>2898</v>
+        <v>15189</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>200</v>
+        <v>436</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="N6" s="7">
-        <v>3806</v>
+        <v>26906</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>200</v>
+        <v>436</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,10 +5830,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D7" s="7">
-        <v>101982</v>
+        <v>634422</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6757,10 +5845,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I7" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6772,10 +5860,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>361</v>
+        <v>1970</v>
       </c>
       <c r="N7" s="7">
-        <v>232715</v>
+        <v>1359752</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6795,49 +5883,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>549</v>
+        <v>817</v>
       </c>
       <c r="D8" s="7">
-        <v>489470</v>
+        <v>1043466</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>513</v>
+        <v>441</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="H8" s="7">
-        <v>911</v>
+        <v>1265</v>
       </c>
       <c r="I8" s="7">
-        <v>562331</v>
+        <v>789863</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>515</v>
+        <v>443</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>516</v>
+        <v>444</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
-        <v>1460</v>
+        <v>2082</v>
       </c>
       <c r="N8" s="7">
-        <v>1051802</v>
+        <v>1833330</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>518</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>519</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>520</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,49 +5934,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D9" s="7">
-        <v>48057</v>
+        <v>97275</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>521</v>
+        <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>522</v>
+        <v>450</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>523</v>
+        <v>147</v>
       </c>
       <c r="H9" s="7">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="I9" s="7">
-        <v>44272</v>
+        <v>127428</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>526</v>
+        <v>453</v>
       </c>
       <c r="M9" s="7">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="N9" s="7">
-        <v>92330</v>
+        <v>224703</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>527</v>
+        <v>454</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>528</v>
+        <v>455</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,49 +5985,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>11245</v>
+        <v>52123</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>530</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>531</v>
+        <v>457</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>532</v>
+        <v>458</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>13364</v>
+        <v>39889</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>533</v>
+        <v>459</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>534</v>
+        <v>460</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>535</v>
+        <v>461</v>
       </c>
       <c r="M10" s="7">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="N10" s="7">
-        <v>24609</v>
+        <v>92012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>536</v>
+        <v>462</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,10 +6036,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>548773</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -6963,10 +6051,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>998</v>
+        <v>1515</v>
       </c>
       <c r="I11" s="7">
-        <v>619967</v>
+        <v>957181</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6978,10 +6066,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1609</v>
+        <v>2479</v>
       </c>
       <c r="N11" s="7">
-        <v>1168740</v>
+        <v>2150045</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7001,49 +6089,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>817</v>
+        <v>491</v>
       </c>
       <c r="D12" s="7">
-        <v>885158</v>
+        <v>527091</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>538</v>
+        <v>465</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>539</v>
+        <v>466</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
       <c r="H12" s="7">
-        <v>1265</v>
+        <v>814</v>
       </c>
       <c r="I12" s="7">
-        <v>870712</v>
+        <v>573014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>541</v>
+        <v>468</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>542</v>
+        <v>469</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="M12" s="7">
-        <v>2082</v>
+        <v>1305</v>
       </c>
       <c r="N12" s="7">
-        <v>1755870</v>
+        <v>1100104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>544</v>
+        <v>471</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>362</v>
+        <v>472</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>545</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,49 +6140,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="D13" s="7">
-        <v>104402</v>
+        <v>157584</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>546</v>
+        <v>474</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>547</v>
+        <v>475</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>548</v>
+        <v>476</v>
       </c>
       <c r="H13" s="7">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I13" s="7">
-        <v>142683</v>
+        <v>328329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>550</v>
+        <v>478</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>551</v>
+        <v>479</v>
       </c>
       <c r="M13" s="7">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="N13" s="7">
-        <v>247085</v>
+        <v>485913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>552</v>
+        <v>480</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>553</v>
+        <v>481</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>554</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,49 +6191,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7">
+        <v>19840</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H14" s="7">
         <v>46</v>
       </c>
-      <c r="D14" s="7">
-        <v>49688</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="H14" s="7">
-        <v>61</v>
-      </c>
       <c r="I14" s="7">
-        <v>44999</v>
+        <v>32023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>557</v>
+        <v>486</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>558</v>
+        <v>487</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>559</v>
+        <v>488</v>
       </c>
       <c r="M14" s="7">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="N14" s="7">
-        <v>94687</v>
+        <v>51863</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>561</v>
+        <v>490</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>562</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,10 +6242,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704516</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7169,10 +6257,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I15" s="7">
-        <v>1058394</v>
+        <v>933366</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7184,10 +6272,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2479</v>
+        <v>1722</v>
       </c>
       <c r="N15" s="7">
-        <v>2097642</v>
+        <v>1637881</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7201,55 +6289,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>491</v>
+        <v>632</v>
       </c>
       <c r="D16" s="7">
-        <v>541303</v>
+        <v>581930</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>563</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>565</v>
+        <v>494</v>
       </c>
       <c r="H16" s="7">
-        <v>814</v>
+        <v>980</v>
       </c>
       <c r="I16" s="7">
-        <v>594482</v>
+        <v>700140</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>566</v>
+        <v>495</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>567</v>
+        <v>496</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>568</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
-        <v>1305</v>
+        <v>1612</v>
       </c>
       <c r="N16" s="7">
-        <v>1135785</v>
+        <v>1282070</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>570</v>
+        <v>499</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>571</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,49 +6346,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>166004</v>
+        <v>255596</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>572</v>
+        <v>501</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>573</v>
+        <v>502</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>574</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
-        <v>187</v>
+        <v>411</v>
       </c>
       <c r="I17" s="7">
-        <v>244278</v>
+        <v>279169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>575</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>576</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>577</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
-        <v>347</v>
+        <v>688</v>
       </c>
       <c r="N17" s="7">
-        <v>410282</v>
+        <v>534765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>578</v>
+        <v>507</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>579</v>
+        <v>508</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>580</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,49 +6397,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D18" s="7">
-        <v>21305</v>
+        <v>88307</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>250</v>
+        <v>510</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>581</v>
+        <v>511</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>582</v>
+        <v>512</v>
       </c>
       <c r="H18" s="7">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="I18" s="7">
-        <v>35611</v>
+        <v>114274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>583</v>
+        <v>454</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>584</v>
+        <v>37</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>585</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="N18" s="7">
-        <v>56915</v>
+        <v>202581</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>586</v>
+        <v>514</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>587</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>588</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,10 +6448,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1004</v>
       </c>
       <c r="D19" s="7">
-        <v>728612</v>
+        <v>925833</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7375,10 +6463,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I19" s="7">
-        <v>874371</v>
+        <v>1093583</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7390,10 +6478,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1722</v>
+        <v>2564</v>
       </c>
       <c r="N19" s="7">
-        <v>1602983</v>
+        <v>2019416</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7407,55 +6495,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>632</v>
+        <v>2603</v>
       </c>
       <c r="D20" s="7">
-        <v>597520</v>
+        <v>2726260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>589</v>
+        <v>517</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>590</v>
+        <v>518</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>591</v>
+        <v>519</v>
       </c>
       <c r="H20" s="7">
-        <v>980</v>
+        <v>4209</v>
       </c>
       <c r="I20" s="7">
-        <v>706217</v>
+        <v>2731407</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>592</v>
+        <v>520</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>593</v>
+        <v>521</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="M20" s="7">
-        <v>1612</v>
+        <v>6812</v>
       </c>
       <c r="N20" s="7">
-        <v>1303737</v>
+        <v>5457668</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>595</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>596</v>
+        <v>524</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>597</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,49 +6552,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>277</v>
+        <v>591</v>
       </c>
       <c r="D21" s="7">
-        <v>273149</v>
+        <v>559387</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>598</v>
+        <v>526</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>599</v>
+        <v>527</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>600</v>
+        <v>528</v>
       </c>
       <c r="H21" s="7">
-        <v>411</v>
+        <v>856</v>
       </c>
       <c r="I21" s="7">
-        <v>316257</v>
+        <v>776678</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>601</v>
+        <v>529</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>602</v>
+        <v>530</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>603</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
-        <v>688</v>
+        <v>1447</v>
       </c>
       <c r="N21" s="7">
-        <v>589406</v>
+        <v>1336065</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>604</v>
+        <v>531</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>605</v>
+        <v>532</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>606</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7515,49 +6603,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="D22" s="7">
-        <v>93695</v>
+        <v>171987</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>607</v>
+        <v>534</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>608</v>
+        <v>535</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>536</v>
       </c>
       <c r="H22" s="7">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c r="I22" s="7">
-        <v>126513</v>
+        <v>201375</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>609</v>
+        <v>537</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>450</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>610</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7">
-        <v>264</v>
+        <v>476</v>
       </c>
       <c r="N22" s="7">
-        <v>220208</v>
+        <v>373362</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>611</v>
+        <v>539</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>612</v>
+        <v>540</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>613</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,10 +6654,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1004</v>
+        <v>3372</v>
       </c>
       <c r="D23" s="7">
-        <v>964364</v>
+        <v>3457634</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7581,10 +6669,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1560</v>
+        <v>5363</v>
       </c>
       <c r="I23" s="7">
-        <v>1148987</v>
+        <v>3709460</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7596,10 +6684,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2564</v>
+        <v>8735</v>
       </c>
       <c r="N23" s="7">
-        <v>2113351</v>
+        <v>7167095</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7612,222 +6700,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2603</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2612174</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="H24" s="7">
-        <v>4209</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2860102</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6812</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5472276</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>591</v>
-      </c>
-      <c r="D25" s="7">
-        <v>593964</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="H25" s="7">
-        <v>856</v>
-      </c>
-      <c r="I25" s="7">
-        <v>748964</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1447</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1342929</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>178</v>
-      </c>
-      <c r="D26" s="7">
-        <v>176842</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H26" s="7">
-        <v>298</v>
-      </c>
-      <c r="I26" s="7">
-        <v>223384</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="M26" s="7">
-        <v>476</v>
-      </c>
-      <c r="N26" s="7">
-        <v>400226</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3382980</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5363</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3832451</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8735</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7215431</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>177</v>
+      <c r="A24" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
